--- a/data/trans_dic/P1419-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1419-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01244964201224313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009201154235585672</v>
+        <v>0.009201154235585674</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1103424573132775</v>
@@ -685,7 +685,7 @@
         <v>0.07019129118967254</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.01791465933915288</v>
+        <v>0.01791465933915289</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.07296865709493715</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02014390758013687</v>
+        <v>0.01994655815527554</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002982734729518358</v>
+        <v>0.002978940430720222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002195914966653121</v>
+        <v>0.002244403499563722</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07375968325647096</v>
+        <v>0.07692782681977274</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03034463508846115</v>
+        <v>0.03083611072664983</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04242034246104832</v>
+        <v>0.04389745526974516</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.009503613594133296</v>
+        <v>0.009665850689185951</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05066930601559696</v>
+        <v>0.05068448772938142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0167518234550478</v>
+        <v>0.01790072296581419</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02717657927475708</v>
+        <v>0.02560914066842318</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007674084830998517</v>
+        <v>0.008148583421847384</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06474445239206739</v>
+        <v>0.06583713575510573</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02758596668857418</v>
+        <v>0.02695757810926401</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03641912375575401</v>
+        <v>0.04076972555252875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0225380034040912</v>
+        <v>0.02237351308579346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1527341336600547</v>
+        <v>0.154751993319374</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08888405365222017</v>
+        <v>0.09225583860208697</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1034223073374565</v>
+        <v>0.1037818457011645</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03142429594104091</v>
+        <v>0.03252935990164118</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09577250200938642</v>
+        <v>0.09724336159371469</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05023075016444253</v>
+        <v>0.05019738147934574</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06147137571484836</v>
+        <v>0.06065169536831094</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02159374247316408</v>
+        <v>0.0217991044928981</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.00228013210848923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02917532240414486</v>
+        <v>0.02917532240414485</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1060257613991308</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02143726508319044</v>
+        <v>0.02273385906368972</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004143120748238491</v>
+        <v>0.005975784961646032</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01629627418916597</v>
+        <v>0.01579982131017803</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08080044939507609</v>
+        <v>0.08073256718883481</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03992709116098553</v>
+        <v>0.03986230040555964</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01020042229327717</v>
+        <v>0.01108126260538325</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08307359881594835</v>
+        <v>0.08047296705193498</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05700285480573767</v>
+        <v>0.05700347208896369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02491174372279962</v>
+        <v>0.02573651005179051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006141137789798278</v>
+        <v>0.006366559389782519</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05234719598959581</v>
+        <v>0.05373778501404012</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06102621793471381</v>
+        <v>0.06177001568404473</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03068521103711102</v>
+        <v>0.0298993955405824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0113602065522312</v>
+        <v>0.01289063953353845</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04639280211284614</v>
+        <v>0.04599143568519991</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1364444895778538</v>
+        <v>0.1350366545657007</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08242297082267946</v>
+        <v>0.08487723372534627</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04236689138879342</v>
+        <v>0.04355527925584975</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1242204341187908</v>
+        <v>0.1248629326776083</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09039872478913626</v>
+        <v>0.08996876200359338</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05077383876476808</v>
+        <v>0.05073466432793912</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02186016587359593</v>
+        <v>0.02273676739602469</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07960534739208479</v>
+        <v>0.08034390974484652</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01537328717153527</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0390666631787777</v>
+        <v>0.03906666317877768</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05943863489602143</v>
@@ -969,7 +969,7 @@
         <v>0.06800336242931941</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06235132688029765</v>
+        <v>0.06235132688029764</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002974559319286627</v>
+        <v>0.002965856998876782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003169537092888119</v>
+        <v>0.003200253730869929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005604536429981601</v>
+        <v>0.00569112756769389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02233869095635575</v>
+        <v>0.02293371443525075</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03920310408579348</v>
+        <v>0.03794494548871967</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02456325134472826</v>
+        <v>0.0246202545744735</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08185384935785935</v>
+        <v>0.08441092478590795</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06266388116957478</v>
+        <v>0.06335171413674501</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02304944748727872</v>
+        <v>0.02263633976167915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01714905084271618</v>
+        <v>0.01708635173031356</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04853301137831213</v>
+        <v>0.05058572282292105</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04815597246603421</v>
+        <v>0.04857446797388919</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02671366728418834</v>
+        <v>0.02707407163575808</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02861798194922534</v>
+        <v>0.02917280222108387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03227244947899035</v>
+        <v>0.0341727310070028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06193693184539522</v>
+        <v>0.06235481522258974</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08904489443954926</v>
+        <v>0.09006744755939437</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06991776233664611</v>
+        <v>0.06946900785311423</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1584512217043739</v>
+        <v>0.1586760486188912</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1050550771040239</v>
+        <v>0.1058164271727234</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05203625852928435</v>
+        <v>0.05048460650898493</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04451207265400392</v>
+        <v>0.04208521954920249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09207207793074096</v>
+        <v>0.09322477361173064</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07824375014770237</v>
+        <v>0.07711989760491912</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07694896114026392</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06588610337636697</v>
+        <v>0.06588610337636699</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07033161164152339</v>
@@ -1105,7 +1105,7 @@
         <v>0.04765219610875817</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04563641239870566</v>
+        <v>0.04563641239870565</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007193692488825712</v>
+        <v>0.00725218954721232</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002585599757757545</v>
+        <v>0.002646335762649772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006864155999933605</v>
+        <v>0.007616738378940655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01038915702364313</v>
+        <v>0.00966643924284552</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0921424884247502</v>
+        <v>0.09100712956154929</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08858925315838567</v>
+        <v>0.09185360681278255</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05164309398709279</v>
+        <v>0.05051049533932592</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05113671185085568</v>
+        <v>0.04911481207816257</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05347071460114545</v>
+        <v>0.05401355414984334</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04962060644370345</v>
+        <v>0.04912762207228857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03221232531638892</v>
+        <v>0.03274915096896683</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03381391642522041</v>
+        <v>0.03452529559563554</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03918191277036045</v>
+        <v>0.03706645857819002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02995737207190658</v>
+        <v>0.03477132757025576</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03482014633842759</v>
+        <v>0.0368266665876799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04988783258107049</v>
+        <v>0.04931097822401799</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1601059934006775</v>
+        <v>0.152412942788487</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1581122763349077</v>
+        <v>0.1617845668805664</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1090886393624309</v>
+        <v>0.1130153326438733</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08839275668321206</v>
+        <v>0.08602015761257067</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08971574653156628</v>
+        <v>0.09030524197382254</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08764950698790315</v>
+        <v>0.08716563075806635</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06871423282325442</v>
+        <v>0.06735888027637713</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.059997337814222</v>
+        <v>0.06067100111779941</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004183143888489131</v>
+        <v>0.004297486903129935</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009108875027276277</v>
+        <v>0.009253273405189888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00479370769163698</v>
+        <v>0.004742128641884221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04017134138609745</v>
+        <v>0.0387973901961522</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03992421679733745</v>
+        <v>0.04348786516948493</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1269891851688251</v>
+        <v>0.124497816523015</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01327796474796763</v>
+        <v>0.01280681968737935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1594068056078911</v>
+        <v>0.1609399201618862</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02736446063076802</v>
+        <v>0.02565194581844321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07219327579577552</v>
+        <v>0.07308368096965752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01231373574665709</v>
+        <v>0.01324611197478196</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1099749002163592</v>
+        <v>0.1133745908709125</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03885128486780799</v>
+        <v>0.0397960987780567</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05897877920794646</v>
+        <v>0.05786775712073991</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04709833601511627</v>
+        <v>0.04274464798939325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09621433983377788</v>
+        <v>0.09444783634828728</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1209432166816062</v>
+        <v>0.1165277019055448</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2255514184087107</v>
+        <v>0.2269717033799973</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05848387879265919</v>
+        <v>0.06124991658598988</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.227477054417663</v>
+        <v>0.229989290501023</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06803942718818928</v>
+        <v>0.06913311202025393</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1302778876037314</v>
+        <v>0.128874438331015</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04224993445513789</v>
+        <v>0.0436297284119805</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1549925802397396</v>
+        <v>0.1560075828358808</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.01112677866914555</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.03972332511067942</v>
+        <v>0.03972332511067941</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1192726878994586</v>
@@ -1377,7 +1377,7 @@
         <v>0.03207586621852199</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09172986019221008</v>
+        <v>0.09172986019221009</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003921291262157575</v>
+        <v>0.003940789007420287</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003434479847945526</v>
+        <v>0.003347819566739972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003003384805721441</v>
+        <v>0.002995884236716021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02418652771442113</v>
+        <v>0.024858515141452</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08259941751515401</v>
+        <v>0.08340348239692696</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05117714256333891</v>
+        <v>0.05477609223579854</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02889268835096192</v>
+        <v>0.02758214871645214</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1178072229701107</v>
+        <v>0.1153803818741961</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04860387480458132</v>
+        <v>0.05059296435588506</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03025860106345345</v>
+        <v>0.02988043093229963</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01826547532352157</v>
+        <v>0.01847212198038444</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07550928870101875</v>
+        <v>0.07610119610660684</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04346776059484798</v>
+        <v>0.04713078012495751</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02958076770857926</v>
+        <v>0.03014144554621665</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03121899723891671</v>
+        <v>0.03101339466700996</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05982806143672038</v>
+        <v>0.05939379304087859</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1620645904667044</v>
+        <v>0.168024749928433</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.116759907837454</v>
+        <v>0.1191637246423461</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08983931809953694</v>
+        <v>0.08471696965896049</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1788483079955142</v>
+        <v>0.1745475875367772</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09170063348442842</v>
+        <v>0.09495047625130679</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06706417966262922</v>
+        <v>0.06565114430593227</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05054998899319109</v>
+        <v>0.05138286379501397</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1124570198963582</v>
+        <v>0.1120057888438485</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007525740831404671</v>
+        <v>0.007625150003867817</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003075647816074632</v>
+        <v>0.003104094495817608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01264063385528271</v>
+        <v>0.01254106132559959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06586853361180452</v>
+        <v>0.06609496099382195</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06224680559019594</v>
+        <v>0.06043397655011427</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07734705081584554</v>
+        <v>0.07783694960819922</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03994700515698178</v>
+        <v>0.03941405231325978</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1910732973043002</v>
+        <v>0.1936876546265916</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.038698702261744</v>
+        <v>0.03769472805575459</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04495783195621798</v>
+        <v>0.04419062978099195</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02928554951096016</v>
+        <v>0.03019466916194958</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1355040106339846</v>
+        <v>0.1368349374107455</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02931387283183224</v>
+        <v>0.02980757115581997</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02253733863927674</v>
+        <v>0.02310719221257871</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03483293649981853</v>
+        <v>0.03723584583011896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1088921651158727</v>
+        <v>0.1050894644404082</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1061191519495381</v>
+        <v>0.1045377807000234</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1249433107050659</v>
+        <v>0.1258581827456561</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07761620715365013</v>
+        <v>0.07897184253098076</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2427955433664228</v>
+        <v>0.2446356077271136</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06172899392140611</v>
+        <v>0.06223193566354285</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06931381991442365</v>
+        <v>0.07046769341418797</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05100804428955655</v>
+        <v>0.05192140165463347</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.171781855794432</v>
+        <v>0.1708011608606424</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.0690252684521738</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04577571376116753</v>
+        <v>0.04577571376116754</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1043942179063838</v>
@@ -1649,7 +1649,7 @@
         <v>0.04484342287519761</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.03074217063710299</v>
+        <v>0.030742170637103</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0434140202285519</v>
+        <v>0.04262226297252977</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005304032525679571</v>
+        <v>0.005152676069568007</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01087572042162671</v>
+        <v>0.01064583642098193</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.008176737357456321</v>
+        <v>0.008072778281787046</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.122901005709702</v>
+        <v>0.1251152743617421</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0597792460130085</v>
+        <v>0.0575390502792565</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05197484923008845</v>
+        <v>0.05163983199829318</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03514983300552709</v>
+        <v>0.03417983594348347</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08964963194352102</v>
+        <v>0.0887176082817915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03516403474789984</v>
+        <v>0.03445866279235935</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03449898575100591</v>
+        <v>0.03424501498410159</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02410825326998156</v>
+        <v>0.02367564697785498</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0773547958520697</v>
+        <v>0.07645245392520397</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02055608265277546</v>
+        <v>0.01918098787439777</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03118432657485076</v>
+        <v>0.03171826296085557</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02565649114837617</v>
+        <v>0.02462237539004838</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1755190635345179</v>
+        <v>0.1787130482533738</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09775958264415363</v>
+        <v>0.09576996820144479</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09064913017605684</v>
+        <v>0.08970806800555878</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05920915249290711</v>
+        <v>0.05914383829063164</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1208202486896134</v>
+        <v>0.1205413329995604</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05712637701786125</v>
+        <v>0.05529896579340524</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0562257339918865</v>
+        <v>0.05599005222026204</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0388582154060266</v>
+        <v>0.03869436828079974</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.008321914230386985</v>
+        <v>0.008544790778515452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0116358945316479</v>
+        <v>0.01143489442991734</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03231788471421401</v>
+        <v>0.03236046250818243</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07562042602825234</v>
+        <v>0.0754780933745748</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05328149660140567</v>
+        <v>0.05342894227592656</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1008284081818562</v>
+        <v>0.1009615313616436</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.04344210027482111</v>
+        <v>0.04390865101475343</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03431353413956627</v>
+        <v>0.03426814894405213</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.06970228890289258</v>
+        <v>0.06971613680761042</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01587805664747063</v>
+        <v>0.01658484248647284</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01990460939253804</v>
+        <v>0.02027032827971853</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04510363066679177</v>
+        <v>0.04527750880996773</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09456085062818462</v>
+        <v>0.09371339908290738</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06981000136150362</v>
+        <v>0.07065947332709893</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.116975956090737</v>
+        <v>0.1172334572170692</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.05416702218811009</v>
+        <v>0.05417611118663095</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0441471124840507</v>
+        <v>0.04452307355838149</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.07984514638403362</v>
+        <v>0.08020719445968978</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5499</v>
+        <v>5446</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19239</v>
+        <v>20066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8716</v>
+        <v>8858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12247</v>
+        <v>12673</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3004</v>
+        <v>3055</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27050</v>
+        <v>27058</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9749</v>
+        <v>10418</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>15829</v>
+        <v>14916</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4872</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17676</v>
+        <v>17974</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8131</v>
+        <v>7945</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10699</v>
+        <v>11977</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7186</v>
+        <v>7134</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39839</v>
+        <v>40365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25531</v>
+        <v>26500</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29858</v>
+        <v>29962</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9932</v>
+        <v>10281</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51128</v>
+        <v>51913</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29233</v>
+        <v>29214</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>35805</v>
+        <v>35327</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13710</v>
+        <v>13840</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10570</v>
+        <v>11209</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2094</v>
+        <v>3021</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8631</v>
+        <v>8369</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40719</v>
+        <v>40685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20912</v>
+        <v>20878</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5336</v>
+        <v>5796</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>45284</v>
+        <v>43866</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>56833</v>
+        <v>56834</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25641</v>
+        <v>26490</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6299</v>
+        <v>6530</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>56261</v>
+        <v>57756</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30091</v>
+        <v>30457</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15512</v>
+        <v>15115</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5709</v>
+        <v>6479</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24572</v>
+        <v>24360</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68761</v>
+        <v>68052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43170</v>
+        <v>44456</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22161</v>
+        <v>22783</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>67713</v>
+        <v>68064</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90130</v>
+        <v>89701</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>52261</v>
+        <v>52221</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22421</v>
+        <v>23320</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>85557</v>
+        <v>86351</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1785</v>
+        <v>1813</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7059</v>
+        <v>7247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13149</v>
+        <v>12727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8377</v>
+        <v>8396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27528</v>
+        <v>28388</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22332</v>
+        <v>22577</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15080</v>
+        <v>14810</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11405</v>
+        <v>11364</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31783</v>
+        <v>33127</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>32379</v>
+        <v>32660</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8518</v>
+        <v>8632</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9274</v>
+        <v>9453</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10281</v>
+        <v>10886</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19572</v>
+        <v>19704</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29867</v>
+        <v>30210</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23843</v>
+        <v>23690</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53289</v>
+        <v>53364</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37440</v>
+        <v>37711</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34045</v>
+        <v>33030</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29603</v>
+        <v>27989</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>60296</v>
+        <v>61050</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52609</v>
+        <v>51853</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2580</v>
+        <v>2601</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>967</v>
+        <v>990</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2539</v>
+        <v>2818</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3877</v>
+        <v>3607</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34227</v>
+        <v>33805</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34457</v>
+        <v>35727</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20000</v>
+        <v>19562</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21578</v>
+        <v>20725</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>39040</v>
+        <v>39437</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>37857</v>
+        <v>37481</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24393</v>
+        <v>24799</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>26886</v>
+        <v>27451</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14053</v>
+        <v>13295</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11204</v>
+        <v>13004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12882</v>
+        <v>13625</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18615</v>
+        <v>18400</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>59472</v>
+        <v>56615</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>61498</v>
+        <v>62926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42248</v>
+        <v>43769</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37298</v>
+        <v>36297</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>65504</v>
+        <v>65934</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>66871</v>
+        <v>66502</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>52034</v>
+        <v>51007</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>47704</v>
+        <v>48240</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1937</v>
+        <v>1967</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8262</v>
+        <v>7979</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8291</v>
+        <v>9031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27886</v>
+        <v>27339</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2902</v>
+        <v>2799</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>36157</v>
+        <v>36505</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11246</v>
+        <v>10542</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31203</v>
+        <v>31587</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5293</v>
+        <v>5693</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>47563</v>
+        <v>49033</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7899</v>
+        <v>8091</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12540</v>
+        <v>12304</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9948</v>
+        <v>9029</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19788</v>
+        <v>19425</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25116</v>
+        <v>24199</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>49529</v>
+        <v>49841</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12784</v>
+        <v>13388</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>51597</v>
+        <v>52167</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>27963</v>
+        <v>28412</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>56307</v>
+        <v>55701</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>18159</v>
+        <v>18752</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>67032</v>
+        <v>67471</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>941</v>
+        <v>917</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6547</v>
+        <v>6729</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22975</v>
+        <v>23198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>14232</v>
+        <v>15233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7891</v>
+        <v>7533</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>30995</v>
+        <v>30356</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>26681</v>
+        <v>27773</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>16705</v>
+        <v>16496</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9795</v>
+        <v>9905</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>40307</v>
+        <v>40623</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11772</v>
+        <v>12764</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8105</v>
+        <v>8258</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8214</v>
+        <v>8160</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16196</v>
+        <v>16078</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>45077</v>
+        <v>46735</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>32470</v>
+        <v>33139</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>24536</v>
+        <v>23137</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>47055</v>
+        <v>45923</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>50340</v>
+        <v>52124</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>37025</v>
+        <v>36244</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>27107</v>
+        <v>27553</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>60030</v>
+        <v>59789</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4629</v>
+        <v>4690</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2039</v>
+        <v>2057</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8299</v>
+        <v>8234</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>47348</v>
+        <v>47510</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>39727</v>
+        <v>38570</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>53667</v>
+        <v>54007</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>27615</v>
+        <v>27247</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>147389</v>
+        <v>149406</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>48499</v>
+        <v>47241</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>60992</v>
+        <v>59951</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>39473</v>
+        <v>40698</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>201927</v>
+        <v>203910</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18029</v>
+        <v>18332</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14937</v>
+        <v>15315</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>22870</v>
+        <v>24447</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78274</v>
+        <v>75540</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>67727</v>
+        <v>66718</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>86692</v>
+        <v>87327</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>53656</v>
+        <v>54593</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>187286</v>
+        <v>188706</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>77362</v>
+        <v>77992</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>94034</v>
+        <v>95599</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>68751</v>
+        <v>69982</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>255988</v>
+        <v>254527</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>32291</v>
+        <v>31702</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>4132</v>
+        <v>4014</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8468</v>
+        <v>8289</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6526</v>
+        <v>6443</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>96294</v>
+        <v>98029</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>49173</v>
+        <v>47330</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>42940</v>
+        <v>42663</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>29196</v>
+        <v>28390</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>136922</v>
+        <v>135499</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>56321</v>
+        <v>55192</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>55362</v>
+        <v>54955</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>39265</v>
+        <v>38560</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>57536</v>
+        <v>56865</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16015</v>
+        <v>14944</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>24280</v>
+        <v>24695</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20476</v>
+        <v>19650</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>137521</v>
+        <v>140024</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>80415</v>
+        <v>78778</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>74891</v>
+        <v>74114</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>49180</v>
+        <v>49125</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>184529</v>
+        <v>184104</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>91498</v>
+        <v>88571</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>90228</v>
+        <v>89850</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>63288</v>
+        <v>63021</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>28517</v>
+        <v>29281</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>39496</v>
+        <v>38814</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>114111</v>
+        <v>114262</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>268838</v>
+        <v>268332</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>188859</v>
+        <v>189381</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>376233</v>
+        <v>376729</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>303307</v>
+        <v>306565</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>238098</v>
+        <v>237783</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>506200</v>
+        <v>506301</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>54411</v>
+        <v>56833</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>67563</v>
+        <v>68805</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>159257</v>
+        <v>159871</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>336173</v>
+        <v>333160</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>247444</v>
+        <v>250455</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>436486</v>
+        <v>437447</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>378187</v>
+        <v>378251</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>306332</v>
+        <v>308941</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>579861</v>
+        <v>582490</v>
       </c>
     </row>
     <row r="40">
